--- a/Data/appData/testdatendbh/Test1 SAP.XLSX
+++ b/Data/appData/testdatendbh/Test1 SAP.XLSX
@@ -1,21 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Library/Python_local/Spielplatz/Mini_Apps/DBH_Check/testdaten/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBED5D6D-055C-0D49-8DB9-1AB9E771E659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="21860" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -385,18 +376,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +403,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,8 +443,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -444,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -456,424 +469,108 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:BU6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="14" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="26" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="18" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="23" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="13" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="19" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="37" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="15" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="7" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="18" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="13" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="22" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="28" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="7" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="17" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="10" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="12" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="14" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="36" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="17" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="17" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="13" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="14" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="16" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="18" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="13" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="16" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="20" customWidth="1"/>
+    <col min="15" max="15" bestFit="1" width="6" customWidth="1"/>
+    <col min="16" max="16" bestFit="1" width="14" customWidth="1"/>
+    <col min="17" max="17" bestFit="1" width="16" customWidth="1"/>
+    <col min="18" max="18" bestFit="1" width="16" customWidth="1"/>
+    <col min="19" max="19" bestFit="1" width="12" customWidth="1"/>
+    <col min="20" max="20" bestFit="1" width="14" customWidth="1"/>
+    <col min="21" max="21" bestFit="1" width="6" customWidth="1"/>
+    <col min="22" max="22" bestFit="1" width="7" customWidth="1"/>
+    <col min="23" max="23" bestFit="1" width="6" customWidth="1"/>
+    <col min="24" max="24" bestFit="1" width="17" customWidth="1"/>
+    <col min="25" max="25" bestFit="1" width="16" customWidth="1"/>
+    <col min="26" max="26" bestFit="1" width="15" customWidth="1"/>
+    <col min="27" max="27" bestFit="1" width="36" customWidth="1"/>
+    <col min="28" max="28" bestFit="1" width="12" customWidth="1"/>
+    <col min="29" max="29" bestFit="1" width="11" customWidth="1"/>
+    <col min="30" max="30" bestFit="1" width="12" customWidth="1"/>
+    <col min="31" max="31" bestFit="1" width="12" customWidth="1"/>
+    <col min="32" max="32" bestFit="1" width="15" customWidth="1"/>
+    <col min="33" max="33" bestFit="1" width="10" customWidth="1"/>
+    <col min="34" max="34" bestFit="1" width="7" customWidth="1"/>
+    <col min="35" max="35" bestFit="1" width="13" customWidth="1"/>
+    <col min="36" max="36" bestFit="1" width="16" customWidth="1"/>
+    <col min="37" max="37" bestFit="1" width="9" customWidth="1"/>
+    <col min="38" max="38" bestFit="1" width="14" customWidth="1"/>
+    <col min="39" max="39" bestFit="1" width="13" customWidth="1"/>
+    <col min="40" max="40" bestFit="1" width="12" customWidth="1"/>
+    <col min="41" max="41" bestFit="1" width="13" customWidth="1"/>
+    <col min="42" max="42" bestFit="1" width="27" customWidth="1"/>
+    <col min="43" max="43" bestFit="1" width="25" customWidth="1"/>
+    <col min="44" max="44" bestFit="1" width="23" customWidth="1"/>
+    <col min="45" max="45" bestFit="1" width="26" customWidth="1"/>
+    <col min="46" max="46" bestFit="1" width="31" customWidth="1"/>
+    <col min="47" max="47" bestFit="1" width="18" customWidth="1"/>
+    <col min="48" max="48" bestFit="1" width="23" customWidth="1"/>
+    <col min="49" max="49" bestFit="1" width="14" customWidth="1"/>
+    <col min="50" max="50" bestFit="1" width="13" customWidth="1"/>
+    <col min="51" max="51" bestFit="1" width="13" customWidth="1"/>
+    <col min="52" max="52" bestFit="1" width="19" customWidth="1"/>
+    <col min="53" max="53" bestFit="1" width="26" customWidth="1"/>
+    <col min="54" max="54" bestFit="1" width="37" customWidth="1"/>
+    <col min="55" max="55" bestFit="1" width="15" customWidth="1"/>
+    <col min="56" max="56" bestFit="1" width="21" customWidth="1"/>
+    <col min="57" max="57" bestFit="1" width="7" customWidth="1"/>
+    <col min="58" max="58" bestFit="1" width="12" customWidth="1"/>
+    <col min="59" max="59" bestFit="1" width="20" customWidth="1"/>
+    <col min="60" max="60" bestFit="1" width="16" customWidth="1"/>
+    <col min="61" max="61" bestFit="1" width="11" customWidth="1"/>
+    <col min="62" max="62" bestFit="1" width="18" customWidth="1"/>
+    <col min="63" max="63" bestFit="1" width="18" customWidth="1"/>
+    <col min="64" max="64" bestFit="1" width="10" customWidth="1"/>
+    <col min="65" max="65" bestFit="1" width="13" customWidth="1"/>
+    <col min="66" max="66" bestFit="1" width="13" customWidth="1"/>
+    <col min="67" max="67" bestFit="1" width="22" customWidth="1"/>
+    <col min="68" max="68" bestFit="1" width="28" customWidth="1"/>
+    <col min="69" max="69" bestFit="1" width="22" customWidth="1"/>
+    <col min="70" max="70" bestFit="1" width="7" customWidth="1"/>
+    <col min="71" max="71" bestFit="1" width="14" customWidth="1"/>
+    <col min="72" max="72" bestFit="1" width="11" customWidth="1"/>
+    <col min="73" max="73" bestFit="1" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="56" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:73">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1094,27 +791,27 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:73">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>483.84</v>
+        <v>483.840</v>
       </c>
       <c r="C2" s="2">
-        <v>483.84</v>
+        <v>483.840</v>
       </c>
       <c r="D2" s="2">
-        <v>558.83500000000004</v>
+        <v>558.835</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>5760</v>
+        <v>5760.000</v>
       </c>
       <c r="G2" s="2">
-        <v>240</v>
+        <v>240.000</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -1132,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N2" t="s">
         <v>4</v>
@@ -1195,7 +892,7 @@
         <v>1</v>
       </c>
       <c r="AH2" s="2">
-        <v>8</v>
+        <v>8.000</v>
       </c>
       <c r="AI2" t="s">
         <v>16</v>
@@ -1216,7 +913,7 @@
         <v>18</v>
       </c>
       <c r="AO2" s="6">
-        <v>0.50464120370370003</v>
+        <v>0.50464120370370</v>
       </c>
       <c r="AP2" t="s">
         <v>2</v>
@@ -1291,7 +988,7 @@
         <v>45405</v>
       </c>
       <c r="BN2" s="6">
-        <v>0.87383101851851996</v>
+        <v>0.87383101851852</v>
       </c>
       <c r="BO2" t="s">
         <v>25</v>
@@ -1315,27 +1012,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:73">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>570.24</v>
+        <v>570.240</v>
       </c>
       <c r="C3" s="2">
-        <v>570.24</v>
+        <v>570.240</v>
       </c>
       <c r="D3" s="2">
-        <v>861.63300000000004</v>
+        <v>861.633</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="2">
-        <v>6480</v>
+        <v>6480.000</v>
       </c>
       <c r="G3" s="2">
-        <v>360</v>
+        <v>360.000</v>
       </c>
       <c r="H3" t="s">
         <v>2</v>
@@ -1353,7 +1050,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="3">
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
@@ -1416,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="AH3" s="2">
-        <v>8</v>
+        <v>8.000</v>
       </c>
       <c r="AI3" t="s">
         <v>16</v>
@@ -1437,7 +1134,7 @@
         <v>18</v>
       </c>
       <c r="AO3" s="6">
-        <v>0.50464120370370003</v>
+        <v>0.50464120370370</v>
       </c>
       <c r="AP3" t="s">
         <v>2</v>
@@ -1512,7 +1209,7 @@
         <v>45405</v>
       </c>
       <c r="BN3" s="6">
-        <v>0.87383101851851996</v>
+        <v>0.87383101851852</v>
       </c>
       <c r="BO3" t="s">
         <v>25</v>
@@ -1536,15 +1233,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:73">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2">
-        <v>57.24</v>
+        <v>57.240</v>
       </c>
       <c r="C4" s="2">
-        <v>57.24</v>
+        <v>57.240</v>
       </c>
       <c r="D4" s="2">
         <v>100.456</v>
@@ -1553,10 +1250,10 @@
         <v>35</v>
       </c>
       <c r="F4" s="2">
-        <v>1080</v>
+        <v>1080.000</v>
       </c>
       <c r="G4" s="2">
-        <v>45</v>
+        <v>45.000</v>
       </c>
       <c r="H4" t="s">
         <v>2</v>
@@ -1574,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N4" t="s">
         <v>36</v>
@@ -1637,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="AH4" s="2">
-        <v>1</v>
+        <v>1.000</v>
       </c>
       <c r="AI4" t="s">
         <v>16</v>
@@ -1658,7 +1355,7 @@
         <v>18</v>
       </c>
       <c r="AO4" s="6">
-        <v>0.50401620370370004</v>
+        <v>0.50401620370370</v>
       </c>
       <c r="AP4" t="s">
         <v>2</v>
@@ -1733,7 +1430,7 @@
         <v>45405</v>
       </c>
       <c r="BN4" s="6">
-        <v>0.87383101851851996</v>
+        <v>0.87383101851852</v>
       </c>
       <c r="BO4" t="s">
         <v>25</v>
@@ -1757,27 +1454,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:73">
       <c r="A5" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="2">
-        <v>457.92</v>
+        <v>457.920</v>
       </c>
       <c r="C5" s="2">
-        <v>457.92</v>
+        <v>457.920</v>
       </c>
       <c r="D5" s="2">
-        <v>803.64800000000002</v>
+        <v>803.648</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
       <c r="F5" s="2">
-        <v>8640</v>
+        <v>8640.000</v>
       </c>
       <c r="G5" s="2">
-        <v>360</v>
+        <v>360.000</v>
       </c>
       <c r="H5" t="s">
         <v>2</v>
@@ -1795,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="3">
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N5" t="s">
         <v>36</v>
@@ -1858,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="AH5" s="2">
-        <v>8</v>
+        <v>8.000</v>
       </c>
       <c r="AI5" t="s">
         <v>16</v>
@@ -1879,7 +1576,7 @@
         <v>18</v>
       </c>
       <c r="AO5" s="6">
-        <v>0.50401620370370004</v>
+        <v>0.50401620370370</v>
       </c>
       <c r="AP5" t="s">
         <v>2</v>
@@ -1954,7 +1651,7 @@
         <v>45405</v>
       </c>
       <c r="BN5" s="6">
-        <v>0.87383101851851996</v>
+        <v>0.87383101851852</v>
       </c>
       <c r="BO5" t="s">
         <v>25</v>
@@ -1978,27 +1675,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:73">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>331.2</v>
+        <v>331.200</v>
       </c>
       <c r="C6" s="2">
-        <v>331.2</v>
+        <v>331.200</v>
       </c>
       <c r="D6" s="2">
-        <v>392.14100000000002</v>
+        <v>392.141</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" s="2">
-        <v>8280</v>
+        <v>8280.000</v>
       </c>
       <c r="G6" s="2">
-        <v>46</v>
+        <v>46.000</v>
       </c>
       <c r="H6" t="s">
         <v>2</v>
@@ -2016,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="M6" s="3">
-        <v>0</v>
+        <v>0.00</v>
       </c>
       <c r="N6" t="s">
         <v>44</v>
@@ -2079,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="AH6" s="2">
-        <v>1</v>
+        <v>1.000</v>
       </c>
       <c r="AI6" t="s">
         <v>16</v>
@@ -2100,7 +1797,7 @@
         <v>18</v>
       </c>
       <c r="AO6" s="6">
-        <v>0.50548611111110997</v>
+        <v>0.50548611111111</v>
       </c>
       <c r="AP6" t="s">
         <v>2</v>
@@ -2175,7 +1872,7 @@
         <v>45405</v>
       </c>
       <c r="BN6" s="6">
-        <v>0.87383101851851996</v>
+        <v>0.87383101851852</v>
       </c>
       <c r="BO6" t="s">
         <v>25</v>
